--- a/Translations/English.xlsx
+++ b/Translations/English.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\Remote - Projects\helper projects\Remotes App Translation Project\bin\Debug\Translations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\Remote - Projects\helper projects\Remotes App Translation Project\translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="270">
   <si>
     <t>Translation Project</t>
   </si>
@@ -847,6 +847,9 @@
   </si>
   <si>
     <t>App Summary</t>
+  </si>
+  <si>
+    <t>FREE edition for a limited time</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1341,7 @@
   <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="65" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1384,7 +1387,7 @@
         <v>267</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F5" t="s">
         <v>268</v>

--- a/Translations/English.xlsx
+++ b/Translations/English.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="271">
   <si>
     <t>Translation Project</t>
   </si>
@@ -850,6 +850,24 @@
   </si>
   <si>
     <t>FREE edition for a limited time</t>
+  </si>
+  <si>
+    <t>FREE edition for a limited time
+**DISCLAIMER
+This app is not the official ____ app. 
+It was designed with care to try and bring ____ users an overall better experience
+**** IMPORTANT ****
+This app needs your phone to have Infrared sensor
+Not sure what this means? you can try downloading the app and see if it works
+Your remote is missing? Just ask us for it from the app
+Features:
+* Control your ____ TV from your phone
+* VOLUME control your TV (up/down/mute/av)
+* SAVE your favorite remotes for easy access
+* NO installation, just click and play
+* AMAZING design with cool &amp; easy interface
+Have questions? remote isn't working?
+Please feel free to contact us on _____</t>
   </si>
 </sst>
 </file>
@@ -1340,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B130" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="65" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2973,7 +2991,7 @@
         <v>263</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F137" t="s">
         <v>264</v>
